--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1731313.277211062</v>
+        <v>-1734174.091003354</v>
       </c>
     </row>
     <row r="7">
@@ -659,20 +659,20 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.091042151559461</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="F2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>231.1881433537673</v>
       </c>
       <c r="V2" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.91658192442712</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>173.352389681456</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>51.45696792994989</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>131.9030318183743</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3748485654327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596164</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>166.7093757723285</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>180.9200782799412</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>103.0753024902263</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>65.21155957591255</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>185.6990179674971</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.7416790765836</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>182.1657375401554</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.6841237441201</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>124.7508337777591</v>
       </c>
       <c r="H9" t="n">
         <v>93.83392671696366</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906609</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.88536814558941</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.57887344616159</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
         <v>221.1204706627545</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>113.9549918517013</v>
       </c>
       <c r="T13" t="n">
-        <v>172.0260335000767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>133.3133845470782</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>52.10645541514074</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>202.2646441552124</v>
+        <v>194.9310885351595</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.20606459030872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>20.25102067617261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>220.8531394779</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>554.9544863138294</v>
       </c>
       <c r="C2" t="n">
         <v>553.8524235344764</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="E2" t="n">
         <v>287.4747669672985</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>821.3321428810074</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>554.9544863138294</v>
       </c>
       <c r="W2" t="n">
-        <v>553.8524235344764</v>
+        <v>554.9544863138294</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344764</v>
+        <v>554.9544863138294</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>554.9544863138294</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385.0063643073365</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="C3" t="n">
-        <v>210.5533350262095</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="D3" t="n">
-        <v>210.5533350262095</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E3" t="n">
-        <v>51.31588002075395</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>51.31588002075395</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>51.31588002075395</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4410,49 +4410,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="W3" t="n">
-        <v>800.6181632778232</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="X3" t="n">
-        <v>592.7666630722904</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.0063643073365</v>
+        <v>280.8187272956869</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>502.9206475740702</v>
+        <v>365.3944463126319</v>
       </c>
       <c r="C4" t="n">
-        <v>502.9206475740702</v>
+        <v>196.458263384725</v>
       </c>
       <c r="D4" t="n">
-        <v>352.8040081617345</v>
+        <v>196.458263384725</v>
       </c>
       <c r="E4" t="n">
-        <v>204.8909145793414</v>
+        <v>196.458263384725</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>196.458263384725</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>593.3839972106492</v>
       </c>
       <c r="W4" t="n">
-        <v>666.9356461250123</v>
+        <v>593.3839972106492</v>
       </c>
       <c r="X4" t="n">
-        <v>502.9206475740702</v>
+        <v>365.3944463126319</v>
       </c>
       <c r="Y4" t="n">
-        <v>502.9206475740702</v>
+        <v>365.3944463126319</v>
       </c>
     </row>
     <row r="5">
@@ -4550,31 +4550,31 @@
         <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>515.1547061224652</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4601,10 +4601,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
         <v>522.1002068716687</v>
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.7964466096705</v>
+        <v>189.4904192610584</v>
       </c>
       <c r="C6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>853.7720823946925</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>853.7720823946925</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="Y6" t="n">
-        <v>646.0117836297386</v>
+        <v>357.7057562811264</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>411.7355323804095</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="C7" t="n">
-        <v>411.7355323804095</v>
+        <v>550.339774323312</v>
       </c>
       <c r="D7" t="n">
-        <v>307.6190652185647</v>
+        <v>550.339774323312</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>402.4266807409189</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>255.5367332430085</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>86.96737259801196</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>593.3839972106492</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>593.3839972106492</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="X7" t="n">
-        <v>593.3839972106492</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="Y7" t="n">
-        <v>593.3839972106492</v>
+        <v>719.2759572512189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.184474503593</v>
+        <v>1411.688124239354</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.184474503593</v>
+        <v>1042.725607298942</v>
       </c>
       <c r="D8" t="n">
-        <v>1639.184474503593</v>
+        <v>855.1508416752076</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.396221905349</v>
+        <v>469.3625890769634</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4103171157416</v>
+        <v>462.4170883277599</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797985</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970189</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181688</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229161</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677488</v>
+        <v>397.0601716677492</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937572</v>
+        <v>719.9935330937574</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721576</v>
+        <v>1110.988557721577</v>
       </c>
       <c r="N8" t="n">
         <v>1512.92409899942</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830555</v>
+        <v>1879.125171830557</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271722</v>
+        <v>2157.168314271723</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257582</v>
+        <v>2317.794388257583</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.65602825978</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="T8" t="n">
-        <v>2012.650232764673</v>
+        <v>2116.216769844004</v>
       </c>
       <c r="U8" t="n">
-        <v>2012.650232764673</v>
+        <v>2116.216769844004</v>
       </c>
       <c r="V8" t="n">
-        <v>2012.650232764673</v>
+        <v>1785.153882500434</v>
       </c>
       <c r="W8" t="n">
-        <v>2012.650232764673</v>
+        <v>1785.153882500434</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.184474503593</v>
+        <v>1411.688124239354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.184474503593</v>
+        <v>1411.688124239354</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>900.1685153197343</v>
+        <v>920.5052177105322</v>
       </c>
       <c r="C9" t="n">
-        <v>732.8108145680978</v>
+        <v>746.0521884294052</v>
       </c>
       <c r="D9" t="n">
-        <v>583.8764049068466</v>
+        <v>597.1177787681539</v>
       </c>
       <c r="E9" t="n">
-        <v>424.6389499013911</v>
+        <v>437.8803237626984</v>
       </c>
       <c r="F9" t="n">
-        <v>278.1043919282761</v>
+        <v>291.3457657895834</v>
       </c>
       <c r="G9" t="n">
-        <v>141.298146550366</v>
+        <v>165.3348225797258</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181688</v>
+        <v>70.55307842117659</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181688</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977936</v>
+        <v>99.15933091977939</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412823</v>
+        <v>267.2893053412824</v>
       </c>
       <c r="L9" t="n">
-        <v>842.9297849400162</v>
+        <v>539.6833456336967</v>
       </c>
       <c r="M9" t="n">
-        <v>1180.15765013668</v>
+        <v>1115.323825232431</v>
       </c>
       <c r="N9" t="n">
-        <v>1688.43379013603</v>
+        <v>1670.475167115885</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.057717796918</v>
+        <v>1978.099094776773</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106034</v>
+        <v>2205.661351085888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590844</v>
+        <v>2307.861496570699</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160698</v>
+        <v>2188.151005160699</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.72181866103</v>
+        <v>1993.721818661031</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505279</v>
+        <v>1993.721818661031</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273537</v>
+        <v>1758.569710429289</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.235352545335</v>
+        <v>1504.332353701087</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.383852339802</v>
+        <v>1296.480853495554</v>
       </c>
       <c r="Y9" t="n">
-        <v>1068.383852339802</v>
+        <v>1088.7205547306</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.6421850136279</v>
+        <v>641.5454984930028</v>
       </c>
       <c r="C10" t="n">
-        <v>489.706002085721</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="D10" t="n">
-        <v>489.706002085721</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="E10" t="n">
-        <v>341.7929085033279</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="F10" t="n">
-        <v>341.7929085033279</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="G10" t="n">
-        <v>304.5349608815204</v>
+        <v>304.5349608815205</v>
       </c>
       <c r="H10" t="n">
         <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181688</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190955</v>
+        <v>65.89540801909553</v>
       </c>
       <c r="K10" t="n">
         <v>227.5779039736018</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632616</v>
+        <v>490.0022680632617</v>
       </c>
       <c r="M10" t="n">
-        <v>777.081088479405</v>
+        <v>777.0810884794051</v>
       </c>
       <c r="N10" t="n">
         <v>1062.768432620619</v>
@@ -4984,28 +4984,28 @@
         <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718231</v>
+        <v>1545.733979065543</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718231</v>
+        <v>1347.573548367366</v>
       </c>
       <c r="T10" t="n">
-        <v>1322.964688947772</v>
+        <v>1124.219537596907</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.964688947772</v>
+        <v>1124.219537596907</v>
       </c>
       <c r="V10" t="n">
-        <v>1068.280200741885</v>
+        <v>869.5350493910202</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.280200741885</v>
+        <v>869.5350493910202</v>
       </c>
       <c r="X10" t="n">
-        <v>840.2906498438676</v>
+        <v>641.5454984930028</v>
       </c>
       <c r="Y10" t="n">
-        <v>840.2906498438676</v>
+        <v>641.5454984930028</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263528</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356212</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378163</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378163</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172276</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237298</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093768</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625014</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.1865537761979</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6455,52 +6455,52 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>982.2858920990373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,22 +7093,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942665</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7397,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,31 +7658,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594348</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,10 +8146,10 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658826</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127244</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>306.3095346528481</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>240.8208226283538</v>
       </c>
       <c r="N9" t="n">
-        <v>149.2062744929432</v>
+        <v>196.5549632647653</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864772</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>19.96002452451523</v>
       </c>
       <c r="V2" t="n">
         <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120864</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>154.6199665182167</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>67.07129414994328</v>
       </c>
       <c r="T13" t="n">
-        <v>45.37941682721151</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.93343655154959</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.3145926077905</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>84.25835418137862</v>
+        <v>91.59190980143151</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.3785887617861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.33133491134416</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1322815.991258039</v>
+        <v>1322815.991258038</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512986</v>
+        <v>331437.5228512989</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424107</v>
+        <v>563905.7843424105</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.1433620122</v>
+        <v>99845.14336201228</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569556</v>
+        <v>147342.6769569555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167228.5543935669</v>
+        <v>167228.554393567</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077261</v>
+        <v>154923.908007726</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768796</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768919</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768883</v>
-      </c>
       <c r="I4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="N4" t="n">
+        <v>17938.00358486234</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17938.00358486234</v>
+      </c>
+      <c r="P4" t="n">
         <v>17938.00358486235</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486237</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17938.00358486238</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543586</v>
+        <v>88290.79546543588</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808813.0536524331</v>
+        <v>-809173.1366681505</v>
       </c>
       <c r="C6" t="n">
-        <v>-189329.5040553281</v>
+        <v>-189329.504055328</v>
       </c>
       <c r="D6" t="n">
-        <v>-451495.960844818</v>
+        <v>-451495.9608448183</v>
       </c>
       <c r="E6" t="n">
-        <v>-553903.4685345859</v>
+        <v>-553938.2064600211</v>
       </c>
       <c r="F6" t="n">
-        <v>10002.3158078249</v>
+        <v>9967.577882389116</v>
       </c>
       <c r="G6" t="n">
-        <v>10002.3158078249</v>
+        <v>9967.577882389131</v>
       </c>
       <c r="H6" t="n">
-        <v>10002.31580782487</v>
+        <v>9967.577882389218</v>
       </c>
       <c r="I6" t="n">
-        <v>10002.31580782484</v>
+        <v>9967.577882389189</v>
       </c>
       <c r="J6" t="n">
-        <v>-58996.83861128926</v>
+        <v>-59031.57653672474</v>
       </c>
       <c r="K6" t="n">
-        <v>10002.31580782488</v>
+        <v>9967.577882389203</v>
       </c>
       <c r="L6" t="n">
-        <v>-97790.99732114747</v>
+        <v>-97790.99732114754</v>
       </c>
       <c r="M6" t="n">
-        <v>-145288.5309160909</v>
+        <v>-145288.5309160908</v>
       </c>
       <c r="N6" t="n">
-        <v>2054.146040864769</v>
+        <v>2054.146040864696</v>
       </c>
       <c r="O6" t="n">
-        <v>2054.146040864725</v>
+        <v>2054.146040864798</v>
       </c>
       <c r="P6" t="n">
-        <v>2054.146040864754</v>
+        <v>2054.146040864711</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896804</v>
+        <v>885.8132865896805</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.455029897711</v>
+        <v>581.4550298977113</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820202</v>
+        <v>271.7582728202023</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519934</v>
+        <v>482.1622137519932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962049</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962049</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962049</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>364.1818496194481</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>69.56273834678262</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78.3425934794636</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.4266991085967</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>63.33480682360448</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>88.79049286565294</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27673,13 +27673,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.999123215987254</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,10 +27752,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.77490488097837</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.54017052798606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>87.17059975994424</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.9840236531858</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814996</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>25.34157870921689</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.024375244195653</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.68734914637189</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690661</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.5082429911502</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169636</v>
+        <v>104.891034070802</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.096715352689281e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29041,13 +29041,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29572,13 +29572,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-5.629609329106813e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551476</v>
+        <v>3.561058438551477</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381531</v>
+        <v>36.46968973381532</v>
       </c>
       <c r="I8" t="n">
         <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490086</v>
+        <v>302.2403836490087</v>
       </c>
       <c r="K8" t="n">
         <v>452.9799873528927</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417125</v>
+        <v>561.9617295417127</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483023</v>
+        <v>625.2907025483024</v>
       </c>
       <c r="N8" t="n">
         <v>635.4085598368368</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884905</v>
+        <v>599.9982849884906</v>
       </c>
       <c r="P8" t="n">
         <v>512.0846547867509</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.554249456126</v>
+        <v>384.5542494561261</v>
       </c>
       <c r="R8" t="n">
         <v>223.6923371406594</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849184</v>
+        <v>81.14761916849186</v>
       </c>
       <c r="T8" t="n">
         <v>15.5885333147591</v>
       </c>
       <c r="U8" t="n">
-        <v>0.284884675084118</v>
+        <v>0.2848846750841181</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,13 +31598,13 @@
         <v>18.4015175195328</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234898</v>
+        <v>65.60032358234899</v>
       </c>
       <c r="J9" t="n">
         <v>180.0123019474369</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657761</v>
+        <v>307.6696959657762</v>
       </c>
       <c r="L9" t="n">
         <v>413.6998750247371</v>
@@ -31613,10 +31613,10 @@
         <v>482.7682411913758</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013976</v>
+        <v>495.5456800139761</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059471</v>
+        <v>453.3274845059472</v>
       </c>
       <c r="P9" t="n">
         <v>363.8352723730331</v>
@@ -31625,13 +31625,13 @@
         <v>243.2142442726987</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
         <v>35.39074781799334</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150151</v>
+        <v>7.679834060150152</v>
       </c>
       <c r="U9" t="n">
         <v>0.1253509367815586</v>
@@ -31677,7 +31677,7 @@
         <v>14.20205564401161</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587972</v>
+        <v>48.03721888587973</v>
       </c>
       <c r="J10" t="n">
         <v>112.9339332755401</v>
@@ -31701,7 +31701,7 @@
         <v>193.1944256522804</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
         <v>71.82348386020587</v>
@@ -31710,10 +31710,10 @@
         <v>27.83777164577732</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527043</v>
+        <v>6.825118765527044</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013258</v>
+        <v>0.0871291757301326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,16 +31844,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2529048371032</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>518.0009690113193</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O24" t="n">
-        <v>628.2482078836097</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,16 +34866,16 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958079</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250135</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223223</v>
+        <v>121.1944791223224</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079121</v>
+        <v>232.8901363079122</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717253</v>
+        <v>326.1953145717254</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210296</v>
+        <v>394.9444693210297</v>
       </c>
       <c r="N8" t="n">
         <v>405.9954962402459</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668037</v>
+        <v>369.9000735668038</v>
       </c>
       <c r="P8" t="n">
         <v>280.8516590314813</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816765</v>
+        <v>162.2485595816766</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527238</v>
+        <v>8.106799326527266</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077017</v>
+        <v>53.1746752807702</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914171</v>
+        <v>169.8282569914172</v>
       </c>
       <c r="L9" t="n">
-        <v>581.455029897711</v>
+        <v>275.145495244863</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693574</v>
+        <v>581.4550298977113</v>
       </c>
       <c r="N9" t="n">
-        <v>513.4102424235859</v>
+        <v>560.7589311954081</v>
       </c>
       <c r="O9" t="n">
         <v>310.7312400615027</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587028</v>
+        <v>229.8608649587029</v>
       </c>
       <c r="Q9" t="n">
         <v>103.2324701866772</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267312</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886728</v>
+        <v>19.5747531588673</v>
       </c>
       <c r="K10" t="n">
         <v>163.3156524792993</v>
@@ -35340,16 +35340,16 @@
         <v>289.978606480953</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901154</v>
+        <v>288.5730748901155</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893897</v>
+        <v>250.3658652893898</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.4729849171739</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334735</v>
+        <v>47.59576302334737</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>471.1188709150848</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>386.659256927986</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O24" t="n">
-        <v>485.6519634391653</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>368.0351523183239</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>430.2720547770426</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
